--- a/SEP/Time Log & Planned Weekly/Timelog_GiangNguyen_SEP.xlsx
+++ b/SEP/Time Log & Planned Weekly/Timelog_GiangNguyen_SEP.xlsx
@@ -248,7 +248,7 @@
     <numFmt numFmtId="166" formatCode="ddd"/>
     <numFmt numFmtId="167" formatCode="mmm\ d"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +378,27 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -633,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -976,34 +997,133 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="18" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="18" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1025,111 +1145,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1145,6 +1160,15 @@
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1449,13 +1473,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68:F69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="23" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="23" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="23" customWidth="1"/>
@@ -1472,14 +1496,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="182" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
     </row>
     <row r="3" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
@@ -1487,14 +1511,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="167"/>
+      <c r="C4" s="180"/>
       <c r="F4" s="24" t="s">
         <v>2</v>
       </c>
@@ -1551,7 +1575,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="152">
+      <c r="A7" s="139">
         <v>1</v>
       </c>
       <c r="B7" s="41">
@@ -1584,7 +1608,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="153"/>
+      <c r="A8" s="140"/>
       <c r="B8" s="41"/>
       <c r="C8" s="42"/>
       <c r="D8" s="45"/>
@@ -1603,7 +1627,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="153"/>
+      <c r="A9" s="140"/>
       <c r="B9" s="47"/>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
@@ -1616,7 +1640,7 @@
       <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="153"/>
+      <c r="A10" s="140"/>
       <c r="B10" s="41"/>
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
@@ -1629,29 +1653,29 @@
       <c r="M10" s="26"/>
     </row>
     <row r="11" spans="1:13" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="153"/>
-      <c r="B11" s="162"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="142"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
       <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="154"/>
-      <c r="B12" s="163"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
+      <c r="A12" s="141"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="157"/>
       <c r="L12" s="23" t="s">
         <v>18</v>
       </c>
@@ -1661,7 +1685,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="152">
+      <c r="A13" s="139">
         <v>2</v>
       </c>
       <c r="B13" s="41">
@@ -1694,7 +1718,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="153"/>
+      <c r="A14" s="140"/>
       <c r="B14" s="41">
         <v>41051</v>
       </c>
@@ -1719,28 +1743,28 @@
       <c r="M14" s="26"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="153"/>
-      <c r="B15" s="162">
+      <c r="A15" s="140"/>
+      <c r="B15" s="142">
         <v>41052</v>
       </c>
-      <c r="C15" s="150">
+      <c r="C15" s="144">
         <v>0.875</v>
       </c>
-      <c r="D15" s="150">
+      <c r="D15" s="144">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E15" s="146">
+      <c r="E15" s="134">
         <v>0</v>
       </c>
-      <c r="F15" s="146">
+      <c r="F15" s="134">
         <v>2.5</v>
       </c>
-      <c r="G15" s="148" t="s">
+      <c r="G15" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="146"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
       <c r="L15" s="23" t="s">
         <v>20</v>
       </c>
@@ -1750,16 +1774,16 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="153"/>
-      <c r="B16" s="163"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
+      <c r="A16" s="140"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
       <c r="L16" s="23" t="s">
         <v>21</v>
       </c>
@@ -1769,7 +1793,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="154"/>
+      <c r="A17" s="141"/>
       <c r="B17" s="53"/>
       <c r="C17" s="54"/>
       <c r="D17" s="54"/>
@@ -1781,45 +1805,45 @@
       <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="155">
+      <c r="A18" s="136">
         <v>3</v>
       </c>
-      <c r="B18" s="158">
+      <c r="B18" s="146">
         <v>41057</v>
       </c>
-      <c r="C18" s="160">
+      <c r="C18" s="148">
         <v>0.375</v>
       </c>
-      <c r="D18" s="160">
+      <c r="D18" s="148">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E18" s="139">
+      <c r="E18" s="130">
         <v>0</v>
       </c>
-      <c r="F18" s="139">
+      <c r="F18" s="130">
         <v>2</v>
       </c>
-      <c r="G18" s="144" t="s">
+      <c r="G18" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="139"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="156"/>
-      <c r="B19" s="159"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="131"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="156"/>
+      <c r="A20" s="137"/>
       <c r="B20" s="56">
         <v>41058</v>
       </c>
@@ -1843,7 +1867,7 @@
       <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="156"/>
+      <c r="A21" s="137"/>
       <c r="B21" s="56">
         <v>41059</v>
       </c>
@@ -1867,7 +1891,7 @@
       <c r="J21" s="62"/>
     </row>
     <row r="22" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="156"/>
+      <c r="A22" s="137"/>
       <c r="B22" s="66">
         <v>41060</v>
       </c>
@@ -1891,7 +1915,7 @@
       <c r="J22" s="62"/>
     </row>
     <row r="23" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="156"/>
+      <c r="A23" s="137"/>
       <c r="B23" s="66">
         <v>41061</v>
       </c>
@@ -1915,7 +1939,7 @@
       <c r="J23" s="62"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="156"/>
+      <c r="A24" s="137"/>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
       <c r="D24" s="42"/>
@@ -1927,43 +1951,43 @@
       <c r="J24" s="43"/>
     </row>
     <row r="25" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="156"/>
-      <c r="B25" s="164"/>
+      <c r="A25" s="137"/>
+      <c r="B25" s="150"/>
       <c r="C25" s="63"/>
       <c r="D25" s="63"/>
       <c r="E25" s="64"/>
       <c r="F25" s="64"/>
       <c r="G25" s="104"/>
       <c r="H25" s="64"/>
-      <c r="I25" s="139"/>
+      <c r="I25" s="130"/>
       <c r="J25" s="52"/>
     </row>
     <row r="26" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="156"/>
-      <c r="B26" s="165"/>
+      <c r="A26" s="137"/>
+      <c r="B26" s="151"/>
       <c r="C26" s="64"/>
       <c r="D26" s="64"/>
       <c r="E26" s="64"/>
       <c r="F26" s="64"/>
       <c r="G26" s="104"/>
       <c r="H26" s="64"/>
-      <c r="I26" s="141"/>
+      <c r="I26" s="153"/>
       <c r="J26" s="52"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="157"/>
-      <c r="B27" s="166"/>
+      <c r="A27" s="138"/>
+      <c r="B27" s="152"/>
       <c r="C27" s="65"/>
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
       <c r="G27" s="105"/>
       <c r="H27" s="46"/>
-      <c r="I27" s="140"/>
+      <c r="I27" s="131"/>
       <c r="J27" s="43"/>
     </row>
     <row r="28" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="155">
+      <c r="A28" s="136">
         <v>4</v>
       </c>
       <c r="B28" s="66">
@@ -1984,12 +2008,12 @@
       <c r="G28" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="172"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="139"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="130"/>
     </row>
     <row r="29" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="156"/>
+      <c r="A29" s="137"/>
       <c r="B29" s="67">
         <v>41067</v>
       </c>
@@ -2008,12 +2032,12 @@
       <c r="G29" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="H29" s="173"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
     </row>
     <row r="30" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="157"/>
+      <c r="A30" s="138"/>
       <c r="B30" s="67">
         <v>41069</v>
       </c>
@@ -2085,45 +2109,45 @@
       <c r="J34" s="29"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="124">
+      <c r="A35" s="125">
         <v>5</v>
       </c>
-      <c r="B35" s="137">
+      <c r="B35" s="170">
         <v>41076</v>
       </c>
-      <c r="C35" s="128">
+      <c r="C35" s="163">
         <v>0.375</v>
       </c>
-      <c r="D35" s="128">
+      <c r="D35" s="163">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E35" s="130">
+      <c r="E35" s="132">
         <v>0</v>
       </c>
-      <c r="F35" s="130">
+      <c r="F35" s="132">
         <v>2.5</v>
       </c>
-      <c r="G35" s="132" t="s">
+      <c r="G35" s="165" t="s">
         <v>51</v>
       </c>
-      <c r="H35" s="130"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="154"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="122"/>
-      <c r="B36" s="138"/>
-      <c r="C36" s="129"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="131"/>
-      <c r="G36" s="133"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="127"/>
-      <c r="J36" s="127"/>
+      <c r="A36" s="126"/>
+      <c r="B36" s="171"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="166"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="155"/>
     </row>
     <row r="37" spans="1:10" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="123"/>
+      <c r="A37" s="127"/>
       <c r="B37" s="70">
         <v>41077</v>
       </c>
@@ -2147,7 +2171,7 @@
       <c r="J37" s="75"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="122">
+      <c r="A38" s="126">
         <v>6</v>
       </c>
       <c r="B38" s="70">
@@ -2173,7 +2197,7 @@
       <c r="J38" s="75"/>
     </row>
     <row r="39" spans="1:10" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="123"/>
+      <c r="A39" s="127"/>
       <c r="B39" s="70">
         <v>40352</v>
       </c>
@@ -2197,7 +2221,7 @@
       <c r="J39" s="80"/>
     </row>
     <row r="40" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="124">
+      <c r="A40" s="125">
         <v>7</v>
       </c>
       <c r="B40" s="70">
@@ -2223,7 +2247,7 @@
       <c r="J40" s="80"/>
     </row>
     <row r="41" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="123"/>
+      <c r="A41" s="127"/>
       <c r="B41" s="70">
         <v>41088</v>
       </c>
@@ -2247,7 +2271,7 @@
       <c r="J41" s="80"/>
     </row>
     <row r="42" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="124">
+      <c r="A42" s="125">
         <v>9</v>
       </c>
       <c r="B42" s="70">
@@ -2273,7 +2297,7 @@
       <c r="J42" s="82"/>
     </row>
     <row r="43" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="122"/>
+      <c r="A43" s="126"/>
       <c r="B43" s="70">
         <v>41103</v>
       </c>
@@ -2297,7 +2321,7 @@
       <c r="J43" s="75"/>
     </row>
     <row r="44" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="122"/>
+      <c r="A44" s="126"/>
       <c r="B44" s="84">
         <v>41104</v>
       </c>
@@ -2321,7 +2345,7 @@
       <c r="J44" s="75"/>
     </row>
     <row r="45" spans="1:10" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="123"/>
+      <c r="A45" s="127"/>
       <c r="B45" s="70">
         <v>41105</v>
       </c>
@@ -2345,7 +2369,7 @@
       <c r="J45" s="75"/>
     </row>
     <row r="46" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="124">
+      <c r="A46" s="125">
         <v>11</v>
       </c>
       <c r="B46" s="84">
@@ -2371,7 +2395,7 @@
       <c r="J46" s="77"/>
     </row>
     <row r="47" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="122"/>
+      <c r="A47" s="126"/>
       <c r="B47" s="84">
         <v>41114</v>
       </c>
@@ -2391,7 +2415,7 @@
       <c r="J47" s="77"/>
     </row>
     <row r="48" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="122"/>
+      <c r="A48" s="126"/>
       <c r="B48" s="70">
         <v>41115</v>
       </c>
@@ -2415,7 +2439,7 @@
       <c r="J48" s="77"/>
     </row>
     <row r="49" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="122"/>
+      <c r="A49" s="126"/>
       <c r="B49" s="86">
         <v>41116</v>
       </c>
@@ -2439,7 +2463,7 @@
       <c r="J49" s="87"/>
     </row>
     <row r="50" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="122"/>
+      <c r="A50" s="126"/>
       <c r="B50" s="70">
         <v>41117</v>
       </c>
@@ -2463,7 +2487,7 @@
       <c r="J50" s="87"/>
     </row>
     <row r="51" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="122"/>
+      <c r="A51" s="126"/>
       <c r="B51" s="86">
         <v>41118</v>
       </c>
@@ -2489,7 +2513,7 @@
       <c r="J51" s="82"/>
     </row>
     <row r="52" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="122"/>
+      <c r="A52" s="126"/>
       <c r="B52" s="84">
         <v>41119</v>
       </c>
@@ -2515,7 +2539,7 @@
       <c r="J52" s="82"/>
     </row>
     <row r="53" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="134">
+      <c r="A53" s="167">
         <v>12</v>
       </c>
       <c r="B53" s="90">
@@ -2543,7 +2567,7 @@
       <c r="J53" s="82"/>
     </row>
     <row r="54" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="135"/>
+      <c r="A54" s="168"/>
       <c r="B54" s="70">
         <v>41121</v>
       </c>
@@ -2569,7 +2593,7 @@
       <c r="J54" s="87"/>
     </row>
     <row r="55" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="135"/>
+      <c r="A55" s="168"/>
       <c r="B55" s="92">
         <v>41122</v>
       </c>
@@ -2595,7 +2619,7 @@
       <c r="J55" s="94"/>
     </row>
     <row r="56" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="135"/>
+      <c r="A56" s="168"/>
       <c r="B56" s="95">
         <v>41123</v>
       </c>
@@ -2619,7 +2643,7 @@
       <c r="J56" s="75"/>
     </row>
     <row r="57" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="135"/>
+      <c r="A57" s="168"/>
       <c r="B57" s="90">
         <v>41124</v>
       </c>
@@ -2645,7 +2669,7 @@
       <c r="J57" s="87"/>
     </row>
     <row r="58" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="135"/>
+      <c r="A58" s="168"/>
       <c r="B58" s="90">
         <v>41125</v>
       </c>
@@ -2671,7 +2695,7 @@
       <c r="J58" s="82"/>
     </row>
     <row r="59" spans="1:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="134">
+      <c r="A59" s="167">
         <v>13</v>
       </c>
       <c r="B59" s="90">
@@ -2697,7 +2721,7 @@
       <c r="J59" s="82"/>
     </row>
     <row r="60" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="135"/>
+      <c r="A60" s="168"/>
       <c r="B60" s="90">
         <v>41128</v>
       </c>
@@ -2723,7 +2747,7 @@
       <c r="J60" s="82"/>
     </row>
     <row r="61" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="135"/>
+      <c r="A61" s="168"/>
       <c r="B61" s="90">
         <v>41129</v>
       </c>
@@ -2749,7 +2773,7 @@
       <c r="J61" s="82"/>
     </row>
     <row r="62" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="135"/>
+      <c r="A62" s="168"/>
       <c r="B62" s="90">
         <v>41130</v>
       </c>
@@ -2773,7 +2797,7 @@
       <c r="J62" s="82"/>
     </row>
     <row r="63" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="135"/>
+      <c r="A63" s="168"/>
       <c r="B63" s="90">
         <v>41131</v>
       </c>
@@ -2799,7 +2823,7 @@
       <c r="J63" s="82"/>
     </row>
     <row r="64" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="135"/>
+      <c r="A64" s="168"/>
       <c r="B64" s="90">
         <v>41132</v>
       </c>
@@ -2825,7 +2849,7 @@
       <c r="J64" s="82"/>
     </row>
     <row r="65" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="135"/>
+      <c r="A65" s="168"/>
       <c r="B65" s="90">
         <v>41133</v>
       </c>
@@ -2851,7 +2875,7 @@
       <c r="J65" s="82"/>
     </row>
     <row r="66" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="136"/>
+      <c r="A66" s="169"/>
       <c r="B66" s="34"/>
       <c r="C66" s="34"/>
       <c r="D66" s="34"/>
@@ -2867,16 +2891,16 @@
       <c r="B67" s="97">
         <v>41136</v>
       </c>
-      <c r="C67" s="168" t="s">
+      <c r="C67" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="D67" s="169"/>
-      <c r="E67" s="169"/>
-      <c r="F67" s="169"/>
-      <c r="G67" s="169"/>
-      <c r="H67" s="169"/>
-      <c r="I67" s="169"/>
-      <c r="J67" s="170"/>
+      <c r="D67" s="123"/>
+      <c r="E67" s="123"/>
+      <c r="F67" s="123"/>
+      <c r="G67" s="123"/>
+      <c r="H67" s="123"/>
+      <c r="I67" s="123"/>
+      <c r="J67" s="124"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="34"/>
@@ -2899,10 +2923,10 @@
       <c r="A69" s="34"/>
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
-      <c r="D69" s="125" t="s">
+      <c r="D69" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="E69" s="125"/>
+      <c r="E69" s="162"/>
       <c r="F69" s="121">
         <f>F68/13</f>
         <v>18.346153846153847</v>
@@ -2914,6 +2938,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="C67:J67"/>
     <mergeCell ref="B2:G2"/>
@@ -2930,46 +2994,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="A59:A66"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -2991,30 +3015,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="172" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="176"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="174"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="177"/>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="179"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="177"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -3023,17 +3047,17 @@
       <c r="B3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="180" t="s">
+      <c r="C3" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="180"/>
-      <c r="E3" s="181">
+      <c r="D3" s="178"/>
+      <c r="E3" s="179">
         <v>41050</v>
       </c>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
